--- a/bank/pout-2022-12-30.xlsx
+++ b/bank/pout-2022-12-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whjd/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B44EA-8971-5740-85BA-C7BD01C8185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8875B-2135-EC4C-8BC2-CAD5C658AE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="3540" windowWidth="33340" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
